--- a/PCB/Cabinas/BOM/BOM.xlsx
+++ b/PCB/Cabinas/BOM/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiCAD\Cabinas\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Cabinas\PCB\Cabinas\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -806,6 +806,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:D31" totalsRowShown="0">
   <autoFilter ref="B2:D31"/>
+  <sortState ref="B3:D31">
+    <sortCondition ref="B2:B31"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Reference"/>
     <tableColumn id="2" name="Value" dataDxfId="1"/>
@@ -1081,7 +1084,7 @@
   <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,13 +1129,13 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -1148,46 +1151,46 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">

--- a/PCB/Cabinas/BOM/BOM.xlsx
+++ b/PCB/Cabinas/BOM/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Cabinas\PCB\Cabinas\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiCAD\Cabinas\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -806,9 +806,6 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:D31" totalsRowShown="0">
   <autoFilter ref="B2:D31"/>
-  <sortState ref="B3:D31">
-    <sortCondition ref="B2:B31"/>
-  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Reference"/>
     <tableColumn id="2" name="Value" dataDxfId="1"/>
@@ -1084,7 +1081,7 @@
   <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,13 +1126,13 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -1151,46 +1148,46 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
